--- a/Arquivos Externos/Entregas Pendentes de TI.xlsx
+++ b/Arquivos Externos/Entregas Pendentes de TI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Entrega de relatórios previstos em edital</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Relatório de Glosa de Edital</t>
-  </si>
-  <si>
-    <t>Em reunião realizada em 30/01/19, sobre processamento da primeira folha do Estado no novo sistema RH Bahia, referente ao mês de dezembro de 2018, foram considerados os seguintes pontos de ajuste na geração do arquivo consignado de mensalidades:</t>
   </si>
   <si>
     <t>Arquivos de retorno sobre processamento da folha para retroativo e coparticipação foram enviados para equipe da Qualirede em 23/01/19, e devem ser avaliados.</t>
@@ -173,13 +170,28 @@
   </si>
   <si>
     <t>Obs</t>
+  </si>
+  <si>
+    <t>Previsão</t>
+  </si>
+  <si>
+    <t>Parcialmente entregue</t>
+  </si>
+  <si>
+    <t>Não entregue</t>
+  </si>
+  <si>
+    <t>Foi enviado mail por Raniere porém o trabalho nunca foi efetivamente apresentado e não foi estabelecida rotina para manutenção de dados</t>
+  </si>
+  <si>
+    <t>Em reunião realizada em 30/01/19, sobre processamento da primeira folha do Estado no novo sistema RH Bahia, referente ao mês de dezembro de 2018, foram considerados os seguintes pontos de ajuste na geração do arquivo consignado de mensalidades</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +214,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +251,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -294,11 +347,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -318,9 +382,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -331,20 +392,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,8 +457,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -704,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -716,9 +798,12 @@
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -731,8 +816,17 @@
       <c r="D1" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,8 +839,13 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -759,8 +858,13 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -773,8 +877,13 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -787,8 +896,15 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -801,8 +917,13 @@
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -815,8 +936,13 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -829,8 +955,13 @@
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -843,8 +974,15 @@
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43524</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -857,6 +995,11 @@
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -882,170 +1025,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="81.5703125" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="16"/>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="16"/>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="16"/>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="16"/>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="16"/>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="16"/>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="16"/>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="16"/>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="16"/>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="16"/>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
